--- a/Python/data/case-study/SC-network/arcs.xlsx
+++ b/Python/data/case-study/SC-network/arcs.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>9,10,11,12,13</t>
   </si>
@@ -342,7 +342,7 @@
   <dimension ref="A1:M781"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -460,9 +460,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
